--- a/promotions.xlsx
+++ b/promotions.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnallamalapu\Documents\database_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3B4D7B-2992-4F24-A37B-DD90C64C1322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7017B51-61CB-42C0-AE7E-7373C1B8AAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3B40537D-CC2E-41E7-8962-A74212E4F13B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D9D0127D-426B-4DCD-AF81-C37A4DE3C07E}"/>
   </bookViews>
   <sheets>
-    <sheet name="promotions" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>promotion_id</t>
+  </si>
   <si>
     <t>promotion_code</t>
   </si>
@@ -55,12 +58,21 @@
   </si>
   <si>
     <t>5$off</t>
+  </si>
+  <si>
+    <t>off_15</t>
+  </si>
+  <si>
+    <t>15$off</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,13 +102,215 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -405,20 +619,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E273A2B3-88DD-4E36-A915-3C57AD90D22C}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AC7A95-7846-45BC-8726-875051E38577}">
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,30 +646,189 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
         <v>5</v>
       </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D5"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K28" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E3:E4">
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8:E10 E13">
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E7">
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L4">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L10 L13">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L7">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>